--- a/src/main/resources/easyexcel/user.xlsx
+++ b/src/main/resources/easyexcel/user.xlsx
@@ -4,25 +4,54 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21000" windowHeight="8675"/>
+    <workbookView windowWidth="21000" windowHeight="8675" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="12">
   <si>
-    <t>user_nameuser_age</t>
+    <t>user_name</t>
+  </si>
+  <si>
+    <t>user_age</t>
   </si>
   <si>
     <t>user_phone</t>
   </si>
   <si>
     <t>user_sex</t>
+  </si>
+  <si>
+    <t>张三</t>
+  </si>
+  <si>
+    <t>137831654265</t>
+  </si>
+  <si>
+    <t>男</t>
+  </si>
+  <si>
+    <t>李四</t>
+  </si>
+  <si>
+    <t>137831654266</t>
+  </si>
+  <si>
+    <t>王五</t>
+  </si>
+  <si>
+    <t>137831654264</t>
+  </si>
+  <si>
+    <t>user_index</t>
   </si>
 </sst>
 </file>
@@ -35,7 +64,7 @@
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -46,6 +75,21 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -60,44 +104,38 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -128,13 +166,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -143,14 +174,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -171,9 +194,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -204,73 +226,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -282,109 +406,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -395,6 +417,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -422,17 +459,32 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -465,186 +517,157 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -964,27 +987,207 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelRow="3" outlineLevelCol="3"/>
+  <cols>
+    <col min="1" max="1" width="21.8888888888889" customWidth="1"/>
+    <col min="3" max="3" width="20" customWidth="1"/>
+    <col min="4" max="4" width="16.8888888888889" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
       <c r="C1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>2</v>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2">
+        <v>22</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3">
+        <v>21</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4">
+        <v>20</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="13.8" outlineLevelRow="3" outlineLevelCol="4"/>
+  <cols>
+    <col min="1" max="1" width="11.5555555555556" customWidth="1"/>
+    <col min="2" max="2" width="18" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2">
+        <v>20</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3">
+        <v>21</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4">
+        <v>22</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="13.8" outlineLevelCol="4"/>
+  <cols>
+    <col min="1" max="1" width="25.2222222222222" customWidth="1"/>
+    <col min="2" max="2" width="22.5555555555556" customWidth="1"/>
+    <col min="3" max="3" width="36.6666666666667" customWidth="1"/>
+    <col min="4" max="4" width="23.3333333333333" customWidth="1"/>
+    <col min="5" max="5" width="23.8888888888889" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/src/main/resources/easyexcel/user.xlsx
+++ b/src/main/resources/easyexcel/user.xlsx
@@ -4,19 +4,18 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21000" windowHeight="8675" activeTab="2"/>
+    <workbookView windowWidth="22368" windowHeight="9420" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="12">
   <si>
     <t>user_name</t>
   </si>
@@ -60,9 +59,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -80,16 +79,100 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -103,16 +186,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -120,15 +203,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -136,82 +211,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -226,187 +225,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -421,15 +420,30 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -455,36 +469,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -517,151 +501,166 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1067,8 +1066,8 @@
   <sheetPr/>
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="13.8" outlineLevelRow="3" outlineLevelCol="4"/>
@@ -1149,45 +1148,4 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:E1"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="13.8" outlineLevelCol="4"/>
-  <cols>
-    <col min="1" max="1" width="25.2222222222222" customWidth="1"/>
-    <col min="2" max="2" width="22.5555555555556" customWidth="1"/>
-    <col min="3" max="3" width="36.6666666666667" customWidth="1"/>
-    <col min="4" max="4" width="23.3333333333333" customWidth="1"/>
-    <col min="5" max="5" width="23.8888888888889" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
 </file>
--- a/src/main/resources/easyexcel/user.xlsx
+++ b/src/main/resources/easyexcel/user.xlsx
@@ -4,18 +4,18 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9420" activeTab="1"/>
+    <workbookView windowWidth="20328" windowHeight="8675"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="paramSheet" sheetId="1" r:id="rId1"/>
+    <sheet name="expireSheet" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="16">
   <si>
     <t>user_name</t>
   </si>
@@ -29,6 +29,9 @@
     <t>user_sex</t>
   </si>
   <si>
+    <t>测试用例编号</t>
+  </si>
+  <si>
     <t>张三</t>
   </si>
   <si>
@@ -38,16 +41,25 @@
     <t>男</t>
   </si>
   <si>
+    <t>case1</t>
+  </si>
+  <si>
     <t>李四</t>
   </si>
   <si>
     <t>137831654266</t>
   </si>
   <si>
+    <t>case2</t>
+  </si>
+  <si>
     <t>王五</t>
   </si>
   <si>
     <t>137831654264</t>
+  </si>
+  <si>
+    <t>case3</t>
   </si>
   <si>
     <t>user_index</t>
@@ -59,9 +71,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -72,6 +84,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
@@ -79,23 +106,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -110,7 +130,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -119,38 +154,6 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -171,6 +174,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
@@ -195,7 +214,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -204,13 +223,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -225,67 +237,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -297,79 +399,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -382,30 +418,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -416,45 +428,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -475,6 +448,45 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -487,8 +499,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -496,8 +508,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -522,10 +534,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -534,133 +546,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -986,20 +998,21 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelRow="3" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelRow="3" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="21.8888888888889" customWidth="1"/>
     <col min="3" max="3" width="20" customWidth="1"/>
     <col min="4" max="4" width="16.8888888888889" customWidth="1"/>
+    <col min="5" max="5" width="8.88888888888889"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1012,47 +1025,59 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B2">
         <v>22</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D2" t="s">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="E2" t="s">
+        <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B3">
         <v>21</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="E3" t="s">
+        <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B4">
         <v>20</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D4" t="s">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="E4" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -1064,19 +1089,19 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F1" sqref="F$1:F$1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="13.8" outlineLevelRow="3" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="13.8" outlineLevelRow="3" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="11.5555555555556" customWidth="1"/>
     <col min="2" max="2" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1090,58 +1115,70 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>11</v>
+        <v>15</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B2">
         <v>20</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
+      <c r="F2" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B3">
         <v>21</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
+      <c r="F3" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B4">
         <v>22</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E4">
         <v>2</v>
+      </c>
+      <c r="F4" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
